--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\F1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A61997-9694-4240-8693-268543B0F980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,347 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Active Years</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>World Championships</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>First win</t>
+  </si>
+  <si>
+    <t>Last win</t>
+  </si>
+  <si>
+    <t>Podiums</t>
+  </si>
+  <si>
+    <t>Grands Prix</t>
+  </si>
+  <si>
+    <t>First race</t>
+  </si>
+  <si>
+    <t>Last race</t>
+  </si>
+  <si>
+    <t>Pole positions</t>
+  </si>
+  <si>
+    <t>Fastest laps</t>
+  </si>
+  <si>
+    <t>Highest race finish</t>
+  </si>
+  <si>
+    <t>Other teams</t>
+  </si>
+  <si>
+    <t>Lewis Hamilton</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/content/fom-website/en/drivers/lewis-hamilton/_jcr_content/image.img.1920.medium.jpg/1617101457462.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lewishamilton.com/</t>
+  </si>
+  <si>
+    <t>2007-</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>7 (2008, 2014, 2015, 2017, 2018, 2019, 2020)</t>
+  </si>
+  <si>
+    <t>Grand Prix du Canada 2007</t>
+  </si>
+  <si>
+    <t>STC Saudi Arabian Grand Prix 2021</t>
+  </si>
+  <si>
+    <t>ING Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>Etihad Airways Abu Dhabi Grand Prix 2021</t>
+  </si>
+  <si>
+    <t>1 (103x)</t>
+  </si>
+  <si>
+    <t>Vodafone McLaren Mercedes (2007-2012), Mercedes-AMG Petronas F1 Team (2013-)</t>
+  </si>
+  <si>
+    <t>Juan Manuel Fangio</t>
+  </si>
+  <si>
+    <t>../images/jmf.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Juan_Manuel_Fangio.html</t>
+  </si>
+  <si>
+    <t>1950-1951, 1953-1958</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>5 (1951, 1954, 1955, 1956, 1957)</t>
+  </si>
+  <si>
+    <t>Prix de Monte-Carlo et XIe Grand Prix Automobile</t>
+  </si>
+  <si>
+    <t>1957 German Grand Prix</t>
+  </si>
+  <si>
+    <t>The Royal Automobile Club Grand Prix d\'Europe Incorporating The British Grand Prix</t>
+  </si>
+  <si>
+    <t>1958 French Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (24x)</t>
+  </si>
+  <si>
+    <t>Alfa Romeo SpA (1950-1951), Officine Alfieri Maserati (1953-1954, 1957), Daimler Benz AG (1954-1955), Scuderia Ferrari (1956), Scuderia Sud Americana (1958), Novi Auto Air Conditioner (1958), Juan Manuel Fangio (1958)</t>
+  </si>
+  <si>
+    <t>Alain Prost</t>
+  </si>
+  <si>
+    <t>../images/ap.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Alain_Prost.html</t>
+  </si>
+  <si>
+    <t>1980-1991, 1993</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>4 (1985, 1986, 1989, 1993)</t>
+  </si>
+  <si>
+    <t>1981 French Grand Prix</t>
+  </si>
+  <si>
+    <t>1993 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1980 Argentine Grand Prix</t>
+  </si>
+  <si>
+    <t>LVIII Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (51x)</t>
+  </si>
+  <si>
+    <t>Honda Marlboro McLaren (1980, 1984-1989), Equipe Renault Elf (1981-1983), Scuderia Ferrari (1990-1991), Canon Williams Renault (1993)</t>
+  </si>
+  <si>
+    <t>Sebastian Vettel</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/content/fom-website/en/drivers/sebastian-vettel/_jcr_content/image.img.1920.medium.jpg/1617101458077.jpg</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/sebastian-vettel.html</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>4 (2010, 2011, 2012, 2013)</t>
+  </si>
+  <si>
+    <t>Gran Premio Santander D\'Italia 2008</t>
+  </si>
+  <si>
+    <t>Singapore Airlines Singapore Grand Prix 2019</t>
+  </si>
+  <si>
+    <t>2007 Formula 1 United States Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (53x)</t>
+  </si>
+  <si>
+    <t>BMW Sauber F1 Team (2006-2007), Scuderia Toro Rosso (2007-2008), Infiniti Red Bull Racing (2009-2014), Scuderia Ferrari (2015-2020), Aston Martin Cognizant F1 Team (2021-)</t>
+  </si>
+  <si>
+    <t>Jack Brabham</t>
+  </si>
+  <si>
+    <t>../images/jb.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jack_Brabham.html</t>
+  </si>
+  <si>
+    <t>1955-1970</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>3 (1959, 1960, 1966)</t>
+  </si>
+  <si>
+    <t>1959 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourth AA Grand Prix of South Africa </t>
+  </si>
+  <si>
+    <t>1955 British Grand Prix</t>
+  </si>
+  <si>
+    <t>1970 Mexican Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (14x)</t>
+  </si>
+  <si>
+    <t>J. A. Brabham (1955, 1956), Cooper Car Company (1955, 1957, 1958-1961), Rob Walker Racing Team (1957), Brabham Racing Organisation (1962-1965, 1966-1970), Scuderia Scribante (1965)</t>
+  </si>
+  <si>
+    <t>Jackie Stewart</t>
+  </si>
+  <si>
+    <t>../images/js.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jackie_Stewart.html</t>
+  </si>
+  <si>
+    <t>1965–1973</t>
+  </si>
+  <si>
+    <t>3 (1969, 1971, 1973)</t>
+  </si>
+  <si>
+    <t>XXXVI Gran Premio d\'Italia</t>
+  </si>
+  <si>
+    <t>1973 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1965 South African Grand Prix</t>
+  </si>
+  <si>
+    <t>1973 United States Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (27x)</t>
+  </si>
+  <si>
+    <t>Owen Racing Organisation (1965-1967), Tyrrell Racing Organisation (1970), Elf Team Tyrrell (1971-1973)</t>
+  </si>
+  <si>
+    <t>Niki Lauda</t>
+  </si>
+  <si>
+    <t>../images/nl.php</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Niki_Lauda.html</t>
+  </si>
+  <si>
+    <t>1971–1979, 1982–1985</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>3 (1975, 1977, 1984)</t>
+  </si>
+  <si>
+    <t>1974 Spanish Grand Prix</t>
+  </si>
+  <si>
+    <t>1985 Dutch Grand Prix</t>
+  </si>
+  <si>
+    <t>1971 Austrian Grand Prix</t>
+  </si>
+  <si>
+    <t>1985 Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (25x)</t>
+  </si>
+  <si>
+    <t>STP March Racing Team (1971-1972), Marlboro-BRM (1973), Scuderia Ferrari SpA SEFAC (1974-1977), Parmalat Racing Team (1978-1979), Marlboro McLaren International (1982-1985)</t>
+  </si>
+  <si>
+    <t>Nelson Piquet</t>
+  </si>
+  <si>
+    <t>../images/np.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Nelson_Piquet.html</t>
+  </si>
+  <si>
+    <t>1978–1991</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>3 (1981, 1983, 1987)</t>
+  </si>
+  <si>
+    <t>Toyota Grand Prix of Long Beach</t>
+  </si>
+  <si>
+    <t>1991 Canadian Grand Prix</t>
+  </si>
+  <si>
+    <t>1978 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1991 Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (23x)</t>
+  </si>
+  <si>
+    <t>Team Tissot Ensign (1978), BS Fabrications (1978), Parmalat Racing Team (1978-1982), Fila Sport (1983), MRD International (1984), Motor Racing Developments Ltd (1985), Canon Williams Team (1986-1987), Camel Team Lotus (1988-1989), Camel Benetton Ford (1990-1991)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +372,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +411,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +712,556 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1985</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>103</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>182</v>
+      </c>
+      <c r="L2" s="1">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1">
+        <v>103</v>
+      </c>
+      <c r="P2" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1911</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1">
+        <v>52</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1955</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1">
+        <v>51</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1">
+        <v>106</v>
+      </c>
+      <c r="L4" s="1">
+        <v>202</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="1">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1987</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1">
+        <v>53</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1">
+        <v>122</v>
+      </c>
+      <c r="L5" s="1">
+        <v>280</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1926</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1">
+        <v>128</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1939</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="1">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1949</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="1">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="1">
+        <v>54</v>
+      </c>
+      <c r="L8" s="1">
+        <v>177</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="1">
+        <v>24</v>
+      </c>
+      <c r="P8" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1952</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="1">
+        <v>60</v>
+      </c>
+      <c r="L9" s="1">
+        <v>207</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="1">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{66A06621-3061-4383-9E64-04E702A15D70}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{04CBFC9B-F74C-478C-8F3C-EC5C78E75874}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{DDD38431-3E5F-4A4C-B9BF-85327C06E063}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{75836815-5070-46F0-AE7C-26C2CF0BD1CA}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{1FCEAD53-E070-4573-B7A5-ACC8BC085456}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{0AC60FE4-0C7F-4E1B-BB9B-5E19025519A3}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{DC83EB76-8D31-4856-A3E0-F369E0DC7A07}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{534BB5AF-D798-4DC3-A878-B4728480D4F9}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{0A9E78E5-5BC6-46E5-AFD1-01A7E9709C27}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{E769C3A7-0DBC-4DA7-8807-CD9071A94891}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A61997-9694-4240-8693-268543B0F980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC97167-E06C-476D-8ED4-934A9DBB199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="370">
   <si>
     <t>Name</t>
   </si>
@@ -150,9 +150,6 @@
     <t>1 (24x)</t>
   </si>
   <si>
-    <t>Alfa Romeo SpA (1950-1951), Officine Alfieri Maserati (1953-1954, 1957), Daimler Benz AG (1954-1955), Scuderia Ferrari (1956), Scuderia Sud Americana (1958), Novi Auto Air Conditioner (1958), Juan Manuel Fangio (1958)</t>
-  </si>
-  <si>
     <t>Alain Prost</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>1 (14x)</t>
   </si>
   <si>
-    <t>J. A. Brabham (1955, 1956), Cooper Car Company (1955, 1957, 1958-1961), Rob Walker Racing Team (1957), Brabham Racing Organisation (1962-1965, 1966-1970), Scuderia Scribante (1965)</t>
-  </si>
-  <si>
     <t>Jackie Stewart</t>
   </si>
   <si>
@@ -285,15 +279,9 @@
     <t>1 (27x)</t>
   </si>
   <si>
-    <t>Owen Racing Organisation (1965-1967), Tyrrell Racing Organisation (1970), Elf Team Tyrrell (1971-1973)</t>
-  </si>
-  <si>
     <t>Niki Lauda</t>
   </si>
   <si>
-    <t>../images/nl.php</t>
-  </si>
-  <si>
     <t>https://www.formula1.com/en/drivers/hall-of-fame/Niki_Lauda.html</t>
   </si>
   <si>
@@ -357,7 +345,796 @@
     <t>1 (23x)</t>
   </si>
   <si>
-    <t>Team Tissot Ensign (1978), BS Fabrications (1978), Parmalat Racing Team (1978-1982), Fila Sport (1983), MRD International (1984), Motor Racing Developments Ltd (1985), Canon Williams Team (1986-1987), Camel Team Lotus (1988-1989), Camel Benetton Ford (1990-1991)</t>
+    <t>Ayrton Senna</t>
+  </si>
+  <si>
+    <t>../images/as.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Ayrton_Senna.html</t>
+  </si>
+  <si>
+    <t>1984-1994</t>
+  </si>
+  <si>
+    <t>3 (1988, 1990, 1991)</t>
+  </si>
+  <si>
+    <t>1985 Portuguese Grand Prix</t>
+  </si>
+  <si>
+    <t>XIII Grande Prêmio Brasil de Fórmula 1</t>
+  </si>
+  <si>
+    <t>14º Gran Premio di San Marino</t>
+  </si>
+  <si>
+    <t>1 (41x)</t>
+  </si>
+  <si>
+    <t>Toleman Group Motorsport (1984), Camel Team Lotus Honda (1985-1987), Marlboro McLaren (1988-1993), Rothmans Williams Renault (1994)</t>
+  </si>
+  <si>
+    <t>Alberto Ascari</t>
+  </si>
+  <si>
+    <t>../images/aa.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Alberto_Ascari.html</t>
+  </si>
+  <si>
+    <t>1950 – 1955</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>2 (1952, 1953)</t>
+  </si>
+  <si>
+    <t>1951 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1953 Swiss Grand Prix</t>
+  </si>
+  <si>
+    <t>1955 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (13x)</t>
+  </si>
+  <si>
+    <t>Graham Hill</t>
+  </si>
+  <si>
+    <t>../images-gh.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Graham_Hill.html</t>
+  </si>
+  <si>
+    <t>1958–1975</t>
+  </si>
+  <si>
+    <t>2 (1962, 1968)</t>
+  </si>
+  <si>
+    <t>1962 Dutch Grand Prix</t>
+  </si>
+  <si>
+    <t>1969 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1958 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1975 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>Jim Clark</t>
+  </si>
+  <si>
+    <t>../images/jc.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jim_Clark.html</t>
+  </si>
+  <si>
+    <t>1960–1968</t>
+  </si>
+  <si>
+    <t>2 (1963, 1965)</t>
+  </si>
+  <si>
+    <t>1962 Belgian Grand Prix</t>
+  </si>
+  <si>
+    <t>2nd AA Grand Prix of South Africa</t>
+  </si>
+  <si>
+    <t>1960 Dutch Grand Prix</t>
+  </si>
+  <si>
+    <t>Team Lotus (1960-1967)</t>
+  </si>
+  <si>
+    <t>Emerson Fittipaldi</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Emerson_Fittipaldi.html</t>
+  </si>
+  <si>
+    <t>1970–1980</t>
+  </si>
+  <si>
+    <t>2 (1972, 1974)</t>
+  </si>
+  <si>
+    <t>1970 United States Grand Prix</t>
+  </si>
+  <si>
+    <t>1975 British Grand Prix</t>
+  </si>
+  <si>
+    <t>1970 British Grand Prix</t>
+  </si>
+  <si>
+    <t>1980 United States Grand Prix</t>
+  </si>
+  <si>
+    <t>Team Lotus (1970-1973), Marlboro Team McLaren (1974-1975), Fittipaldi Automotive (1976-1980)</t>
+  </si>
+  <si>
+    <t>Alfa Romeo SpA (1950-1951), Officine Alfieri Maserati (1953-1954, 1957, 1958), Daimler Benz AG (1954-1955), Scuderia Ferrari (1956), Novi Auto Air Conditioner (1958)</t>
+  </si>
+  <si>
+    <t>Cooper Car Company (1955, 1957, 1958-1961), Rob Walker Racing Team (1957), Brabham Racing Organisation (1962-1970)</t>
+  </si>
+  <si>
+    <t>Owen Racing Organisation (1965-1967), Matra International (1968-1969), Elf Team Tyrrell (1970-1973)</t>
+  </si>
+  <si>
+    <t>Mika Häkkinen</t>
+  </si>
+  <si>
+    <t>../images/mh.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Mika_Hakkinen.html</t>
+  </si>
+  <si>
+    <t>1991–2001</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>2 (1998, 1999)</t>
+  </si>
+  <si>
+    <t>1 (20x)</t>
+  </si>
+  <si>
+    <t>Team Lotus (1991-1992), West McLaren Mercedes (1993-2001)</t>
+  </si>
+  <si>
+    <t>../images/nl.png</t>
+  </si>
+  <si>
+    <t>Fernando Alonso</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/fernando-alonso.html</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>2 (2005, 2006)</t>
+  </si>
+  <si>
+    <t>Marlboro Magyar Nagydíj 2003</t>
+  </si>
+  <si>
+    <t>Gran Premio de España 2013</t>
+  </si>
+  <si>
+    <t>LXVI Qantas Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (32x)</t>
+  </si>
+  <si>
+    <t>2001, 2003-2018, 2021-</t>
+  </si>
+  <si>
+    <t>European Minardi F1 (2001), Renault F1 Team (2003-2006, 2008-09), McLaren F1 Team (2007, 2015-2018), Alpine F1 Team (2021-)</t>
+  </si>
+  <si>
+    <t>XLII European Grand Prix</t>
+  </si>
+  <si>
+    <t>2001 SAP United States Grand Prix</t>
+  </si>
+  <si>
+    <t>XXVIII Iceberg United States Grand Prix</t>
+  </si>
+  <si>
+    <t>2001 Fuji Television Japanese Grand Prix</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/content/dam/fom-website/drivers/F/FERALO01_Fernando_Alonso/feralo01.png.transform/2col-retina/image.png</t>
+  </si>
+  <si>
+    <t>Team Tissot Ensign (1978), BS Fabrications (1978), Motor Racing Developments, Ltd. (1978-1985), Canon Williams Team (1986-1987), Camel Team Lotus (1988-1989), Camel Benetton Ford (1990-1991)</t>
+  </si>
+  <si>
+    <t>Giuseppe Farina</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Nino_Farina.html</t>
+  </si>
+  <si>
+    <t>1950–1956</t>
+  </si>
+  <si>
+    <t>1 (1950)</t>
+  </si>
+  <si>
+    <t>1953 German Grand Prix</t>
+  </si>
+  <si>
+    <t>40th International 500-Mile Sweepstakes</t>
+  </si>
+  <si>
+    <t>1 (5x)</t>
+  </si>
+  <si>
+    <t>Alfa Romeo SpA (1950-1951), Scuderia Ferrari (1952-1956)</t>
+  </si>
+  <si>
+    <t>../images/gf.jpg</t>
+  </si>
+  <si>
+    <t>Mike Hawthorn</t>
+  </si>
+  <si>
+    <t>../images/mh2.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Mike_Hawthorn.html</t>
+  </si>
+  <si>
+    <t>1952–1958</t>
+  </si>
+  <si>
+    <t>1 (1958)</t>
+  </si>
+  <si>
+    <t>1952 Belgian Grand Prix</t>
+  </si>
+  <si>
+    <t>1953 French Grand Prix</t>
+  </si>
+  <si>
+    <t>VII Grand Prix International Automobile du Maroc</t>
+  </si>
+  <si>
+    <t>1 (3x)</t>
+  </si>
+  <si>
+    <t>Leslie D. Hawthorn (1952), Scuderia Ferrari (1953-1955, 1957-1958), Vandervell Products (1955-1956), Owen Racing Organisation (1956), Officine Alfieri Maserati (1956)</t>
+  </si>
+  <si>
+    <t>Scuderia Ferrari (1950-1954), Officine Alfieri Maserati (1954), Scuderia Lancia (1954-1955)</t>
+  </si>
+  <si>
+    <t>Phil Hill</t>
+  </si>
+  <si>
+    <t>../images/ph.jpg</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Phil_Hill.html</t>
+  </si>
+  <si>
+    <t>1958–1964, 1966</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>1 (1961)</t>
+  </si>
+  <si>
+    <t>1960 Italian Grand Prix</t>
+  </si>
+  <si>
+    <t>1961 Italian Grand Prix</t>
+  </si>
+  <si>
+    <t>1966 Italian Grand Prix</t>
+  </si>
+  <si>
+    <t>Jo Bonnier (1958), Scuderia Ferrari (1958-1960, 1961-1962), Cooper Car Company (1960, 1964), Porsche System Engineering (1962), Automobili Turismo e Sport (1963), Ecurie Filipinetti (1963, 1966), Phil Hill (1966), Anglo American Racers (1966)</t>
+  </si>
+  <si>
+    <t>Team Lotus (1958-1959, 1967-1970), Owen Racing Organisation (1960-1966), Motor Racing Developments Ltd (1971-1972), Embassy Racing with Graham Hill (1973-1975)</t>
+  </si>
+  <si>
+    <t>John Surtees</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/John_Surtees.html</t>
+  </si>
+  <si>
+    <t>1 (1964)</t>
+  </si>
+  <si>
+    <t>1960–1972</t>
+  </si>
+  <si>
+    <t>1963 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1967 Italian Grand Prix</t>
+  </si>
+  <si>
+    <t>1960 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1972 Italian Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (6x)</t>
+  </si>
+  <si>
+    <t>Team Lotus (1960), Bowmaker-Yeoman Racing Team (1961-1962), Scuderia Ferrari SpA SEFAC (1963-1966), Cooper Car Company (1966), Honda Racing (1967-1968), Owen Racing Organisation (1969), Team Surtees (1970-1972)</t>
+  </si>
+  <si>
+    <t>Denny Hulme</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Denny_Hulme.html</t>
+  </si>
+  <si>
+    <t>1965–1974</t>
+  </si>
+  <si>
+    <t>1 (1967)</t>
+  </si>
+  <si>
+    <t>1967 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1974 Argentine Grand Prix</t>
+  </si>
+  <si>
+    <t>XXIII Grand Prix de Monaco</t>
+  </si>
+  <si>
+    <t>XVII United States Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (8x)</t>
+  </si>
+  <si>
+    <t>Brabham Racing Organisation (1965-1967), Marlboro Team Texaco (1968-1974)</t>
+  </si>
+  <si>
+    <t>../images/dh.jpg</t>
+  </si>
+  <si>
+    <t>../images/ef.jpg</t>
+  </si>
+  <si>
+    <t>Jochen Rindt</t>
+  </si>
+  <si>
+    <t>../images/jr.jpg</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jochen_Rindt.html</t>
+  </si>
+  <si>
+    <t>1964–1970</t>
+  </si>
+  <si>
+    <t>1 (1970)</t>
+  </si>
+  <si>
+    <t>XII United States Grand Prix</t>
+  </si>
+  <si>
+    <t>1970 German Grand Prix</t>
+  </si>
+  <si>
+    <t>1964 Austrian Grand Prix</t>
+  </si>
+  <si>
+    <t>XLI Gran Premio d\'Italia</t>
+  </si>
+  <si>
+    <t>Rob Walker Racing Team (1964), Cooper Car Company (1965-1967), Brabham Racing Organisation (1968), Gold Leaf Team Lotus (1969-1970)</t>
+  </si>
+  <si>
+    <t>James Hunt</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/James_Hunt.html</t>
+  </si>
+  <si>
+    <t>1973–1979</t>
+  </si>
+  <si>
+    <t>XXII Grand Prix Zandvoort</t>
+  </si>
+  <si>
+    <t>XII Japanese Grand Prix</t>
+  </si>
+  <si>
+    <t>XXXI Grand Prix de Monaco</t>
+  </si>
+  <si>
+    <t>1979 Monaco Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (10x)</t>
+  </si>
+  <si>
+    <t>Hesketh Racing (1973-1975), Marlboro Team McLaren (1976-1978), Olympus Cameras Wolf Racing (1979)</t>
+  </si>
+  <si>
+    <t>1 (1976)</t>
+  </si>
+  <si>
+    <t>Mario Andretti</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Mario_Andretti.html</t>
+  </si>
+  <si>
+    <t>1968–1972, 1974–1982</t>
+  </si>
+  <si>
+    <t>1 (1978)</t>
+  </si>
+  <si>
+    <t>Fifth AA Grand Prix of South Africa</t>
+  </si>
+  <si>
+    <t>1978 Dutch Grand Prix</t>
+  </si>
+  <si>
+    <t>XI United States Grand Prix</t>
+  </si>
+  <si>
+    <t>2nd Caesars Palace Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (12x)</t>
+  </si>
+  <si>
+    <t>Martini Racing Team Lotus (1968-1969, 1976,  1977-1980), STP Corporation (1970), Scuderia Ferrari SpA SEFAC (1971-1972, 1982) Vel's Parnelli Jones Racing (1974-1975, 1976), Marlboro Team Alfa Romeo (1981), TAG Williams Team (1982)</t>
+  </si>
+  <si>
+    <t>Jody Scheckter</t>
+  </si>
+  <si>
+    <t>../images/js3.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jody_Scheckter.html</t>
+  </si>
+  <si>
+    <t>1972 – 1980</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>1 (1979)</t>
+  </si>
+  <si>
+    <t>1974 Swedish Grand Prix</t>
+  </si>
+  <si>
+    <t>50º Gran Premio d\'Italia</t>
+  </si>
+  <si>
+    <t>XV United States Grand Prix</t>
+  </si>
+  <si>
+    <t>XXIII Toyota United States Grand Prix</t>
+  </si>
+  <si>
+    <t>Yardley Team McLaren (1972-1973), Elf Team Tyrrell (1974-1976), Walter Wolf Racing (1977-1978), Scuderia Ferrari (1979-1980)</t>
+  </si>
+  <si>
+    <t>Alan Jones</t>
+  </si>
+  <si>
+    <t>../images/aj.jpg</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Alan_Jones.html</t>
+  </si>
+  <si>
+    <t>1975–1981, 1983, 1985–1986</t>
+  </si>
+  <si>
+    <t>1 (1980)</t>
+  </si>
+  <si>
+    <t>XV Gröbl Möbel Großer Preis von Österreich</t>
+  </si>
+  <si>
+    <t>1st Caesars Palace Grand Prix</t>
+  </si>
+  <si>
+    <t>XXI Gran Premio de España</t>
+  </si>
+  <si>
+    <t>LI Foster's Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>Custom Made Harry Stiller Racing (1975), Embassy Racing with Graham Hill (1975), Shadow Racing Team (1976-1977), TAG Williams Team (1978-1981), Arrows Racing Team (1983), Team Haas (USA) Ltd (1985-1986)</t>
+  </si>
+  <si>
+    <t>Keke Rosberg</t>
+  </si>
+  <si>
+    <t>../images/kr.jpg</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Keke_Rosberg.html</t>
+  </si>
+  <si>
+    <t>1978–1986</t>
+  </si>
+  <si>
+    <t>1 (1982)</t>
+  </si>
+  <si>
+    <t>1982 Swiss Grand Prix</t>
+  </si>
+  <si>
+    <t>L Mitsubishi Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>XXIV Citizen and Asseng Grand Prix of South Africa</t>
+  </si>
+  <si>
+    <t>Theodore Racing Hong Kong (1978), ATS Racing Team (1978), Olympus Cameras Wolf Racing (1979), Fittipaldi Automotive (1980-1981), Canon Williams Team (1982-1985), Marlboro McLaren International (1986)</t>
+  </si>
+  <si>
+    <t>../images/js2.jpg</t>
+  </si>
+  <si>
+    <t>Nigel Mansell</t>
+  </si>
+  <si>
+    <t>../images/nm.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Nigel_Mansell.html</t>
+  </si>
+  <si>
+    <t>1980–1992, 1994–1995</t>
+  </si>
+  <si>
+    <t>1 (1992)</t>
+  </si>
+  <si>
+    <t>Shell Oils Grand Prix of Europe</t>
+  </si>
+  <si>
+    <t>LIX Adelaide Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>XVIII Großer Preis von Osterreich</t>
+  </si>
+  <si>
+    <t>XXXVII Gran Premio Marlboro de España</t>
+  </si>
+  <si>
+    <t>1 (31x)</t>
+  </si>
+  <si>
+    <t>John Player Special Team Lotus (1980-1984), Rothmans Williams Renault (1985-1988, 1991-1992, 1994), Scuderia Ferrari (1989-1990),  Marlboro McLaren Mercedes (1995)</t>
+  </si>
+  <si>
+    <t>Damon Hill</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Damon_Hill.html</t>
+  </si>
+  <si>
+    <t>1992–1999</t>
+  </si>
+  <si>
+    <t>1 (1996)</t>
+  </si>
+  <si>
+    <t>IX Marlboro Magyar Nagydíj</t>
+  </si>
+  <si>
+    <t>LVI Foster's Belgian Grand Prix</t>
+  </si>
+  <si>
+    <t>Gran Premio Tío Pepe de España</t>
+  </si>
+  <si>
+    <t>XXV Fuji Television Japanese Grand Prix</t>
+  </si>
+  <si>
+    <t>1 (22x)</t>
+  </si>
+  <si>
+    <t>Motor Racing Developments (1992), Rothmans Williams Renault (1993-1996), Danka Arrows Yamaha (1997), B&amp;H Jordan (1998-1999)</t>
+  </si>
+  <si>
+    <t>../images/dh2.jpg</t>
+  </si>
+  <si>
+    <t>Jacques Villeneuve</t>
+  </si>
+  <si>
+    <t>../images/jv.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jacques_Villeneuve.html</t>
+  </si>
+  <si>
+    <t>1996–2006</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>1 (1997)</t>
+  </si>
+  <si>
+    <t>XL Grand Prix of Europe</t>
+  </si>
+  <si>
+    <t>Grosser Preis von Luxemburg 1997</t>
+  </si>
+  <si>
+    <t>1996 Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>Grosser Mobil 1 Preis von Deutschland 2006</t>
+  </si>
+  <si>
+    <t>1 (11x)</t>
+  </si>
+  <si>
+    <t>Winfield Williams (1996-1998), Lucky Strike BAR Honda (1999-2003), Mild Seven Renault F1 Team (2004), BMW Sauber F1 Team (2005-2006)</t>
+  </si>
+  <si>
+    <t>../images/jh.jpg</t>
+  </si>
+  <si>
+    <t>Kimi Räikkönen</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/content/dam/fom-website/drivers/K/KIMRAI01_Kimi_R%C3%A4ikk%C3%B6nen/kimrai01.png.transform/2col-retina/image.png</t>
+  </si>
+  <si>
+    <t>2001–2009, 2012–2021</t>
+  </si>
+  <si>
+    <t>1 (2007)</t>
+  </si>
+  <si>
+    <t>2003 Petronas Malaysian Grand Prix</t>
+  </si>
+  <si>
+    <t>Pirelli 2018 United States Grand Prix</t>
+  </si>
+  <si>
+    <t>https://www.kimiraikkonen.com/</t>
+  </si>
+  <si>
+    <t>1 (21x)</t>
+  </si>
+  <si>
+    <t>Red Bull Sauber Petronas (2001), Team McLaren Mercedes (2002-2006), Scuderia Ferrari (2007-2009, 2014-2018), Lotus F1 Team (2012-2013), Alfa Romeo Racing Orlen (2019-2021)</t>
+  </si>
+  <si>
+    <t>../images/ma.jpg</t>
+  </si>
+  <si>
+    <t>Jenson Button</t>
+  </si>
+  <si>
+    <t>../images/jb2.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Jenson_Button.html</t>
+  </si>
+  <si>
+    <t>2000–2017</t>
+  </si>
+  <si>
+    <t>1 (2009)</t>
+  </si>
+  <si>
+    <t>2000 Qantas Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>Magyar Nagydíj 2006</t>
+  </si>
+  <si>
+    <t>Grande Prêmio Petrobras do Brasil 2012</t>
+  </si>
+  <si>
+    <t>Grand Prix de Monaco 2017</t>
+  </si>
+  <si>
+    <t>1 (15x)</t>
+  </si>
+  <si>
+    <t>BMW Williams F1 Team (2000), Mild Seven Renault F1 Team (2001-2002), Honda Racing F1 Team (2003-2008), Honda Racing F1 Team (2009), McLaren Honda (2010-2017)</t>
+  </si>
+  <si>
+    <t>Nico Rosberg</t>
+  </si>
+  <si>
+    <t>../images/nr.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/hall-of-fame/Nico_Rosberg.html</t>
+  </si>
+  <si>
+    <t>2006–2016</t>
+  </si>
+  <si>
+    <t>1 (2016)</t>
+  </si>
+  <si>
+    <t>2012 UBS Chinese Grand Prix</t>
+  </si>
+  <si>
+    <t>2016 Emirates Japanese Grand Prix</t>
+  </si>
+  <si>
+    <t>2006 Gulf Air Bahrain Grand Prix</t>
+  </si>
+  <si>
+    <t>2016 Etihad Airways Abu Dhabi Grand Prix</t>
+  </si>
+  <si>
+    <t>AT&amp;T Williams (2006-2009), Mercedes AMG Petronas F1 Team (2010-2016)</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/content/dam/fom-website/drivers/M/MAXVER01_Max_Verstappen/maxver01.png.transform/2col-retina/image.png</t>
+  </si>
+  <si>
+    <t>https://www.formula1.com/en/drivers/max-verstappen.html</t>
+  </si>
+  <si>
+    <t>2015-</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>1 (2021)</t>
+  </si>
+  <si>
+    <t>Gran Premio de España Pirelli 2016</t>
+  </si>
+  <si>
+    <t>2015 Rolex Australian Grand Prix</t>
+  </si>
+  <si>
+    <t>Scuderia Toro Rosso (2015-2016), Red Bull Racing Honda (2016-)</t>
   </si>
 </sst>
 </file>
@@ -388,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +1175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +1213,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,12 +1505,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +1518,7 @@
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.140625" style="5" bestFit="1" customWidth="1"/>
@@ -736,7 +1528,7 @@
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -784,7 +1576,7 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -801,451 +1593,1851 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>1985</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>103</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>182</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>288</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="6">
         <v>103</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="6">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="270" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>1911</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="6">
         <v>35</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="6">
         <v>52</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="6">
         <v>29</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="6">
         <v>23</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>41</v>
+      <c r="R3" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6">
+        <v>1955</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1">
-        <v>1955</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6">
+        <v>51</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6">
+        <v>106</v>
+      </c>
+      <c r="L4" s="6">
+        <v>202</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="6">
+        <v>33</v>
+      </c>
+      <c r="P4" s="6">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1">
-        <v>106</v>
-      </c>
-      <c r="L4" s="1">
-        <v>202</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="1">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1987</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1987</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="6">
+        <v>53</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="1">
-        <v>53</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="6">
+        <v>122</v>
+      </c>
+      <c r="L5" s="6">
+        <v>280</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="1">
-        <v>122</v>
-      </c>
-      <c r="L5" s="1">
-        <v>280</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="6">
+        <v>57</v>
+      </c>
+      <c r="P5" s="6">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1">
-        <v>57</v>
-      </c>
-      <c r="P5" s="1">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="255" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6">
+        <v>1926</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="1">
-        <v>1926</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="6">
+        <v>14</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="6">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6">
+        <v>128</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="1">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1">
-        <v>128</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="6">
+        <v>13</v>
+      </c>
+      <c r="P6" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="1">
-        <v>13</v>
-      </c>
-      <c r="P6" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>75</v>
+      <c r="R6" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="6">
+        <v>1939</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="H7" s="6">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1">
-        <v>1939</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="1">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="6">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="N7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="1">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1">
-        <v>100</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="6">
+        <v>17</v>
+      </c>
+      <c r="P7" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="1">
-        <v>17</v>
-      </c>
-      <c r="P7" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>86</v>
+      <c r="R7" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1949</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="H8" s="6">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="1">
-        <v>1949</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="6">
+        <v>54</v>
+      </c>
+      <c r="L8" s="6">
+        <v>177</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="N8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="1">
+      <c r="O8" s="6">
+        <v>24</v>
+      </c>
+      <c r="P8" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1952</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="6">
+        <v>23</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="6">
+        <v>60</v>
+      </c>
+      <c r="L9" s="6">
+        <v>207</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="6">
+        <v>24</v>
+      </c>
+      <c r="P9" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1960</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="6">
+        <v>41</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="6">
+        <v>80</v>
+      </c>
+      <c r="L10" s="6">
+        <v>162</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="6">
+        <v>65</v>
+      </c>
+      <c r="P10" s="6">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1918</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="6">
+        <v>13</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="6">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6">
+        <v>33</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="6">
+        <v>14</v>
+      </c>
+      <c r="P11" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1929</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6">
+        <v>14</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="6">
+        <v>36</v>
+      </c>
+      <c r="L12" s="6">
+        <v>179</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="6">
+        <v>13</v>
+      </c>
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1936</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="6">
         <v>25</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="6">
+        <v>32</v>
+      </c>
+      <c r="L13" s="6">
+        <v>73</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="6">
+        <v>33</v>
+      </c>
+      <c r="P13" s="6">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="1">
-        <v>54</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="R13" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1946</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="6">
+        <v>14</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="6">
+        <v>35</v>
+      </c>
+      <c r="L14" s="6">
+        <v>149</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="6">
+        <v>6</v>
+      </c>
+      <c r="P14" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1968</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="6">
+        <v>20</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="6">
+        <v>51</v>
+      </c>
+      <c r="L15" s="6">
+        <v>165</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15" s="6">
+        <v>26</v>
+      </c>
+      <c r="P15" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1981</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="6">
+        <v>32</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="6">
+        <v>98</v>
+      </c>
+      <c r="L16" s="6">
+        <v>336</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="6">
+        <v>22</v>
+      </c>
+      <c r="P16" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1906</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6">
+        <v>36</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1929</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="6">
+        <v>18</v>
+      </c>
+      <c r="L18" s="6">
+        <v>47</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" s="6">
+        <v>4</v>
+      </c>
+      <c r="P18" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="330" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1927</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="6">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6">
+        <v>52</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="6">
+        <v>6</v>
+      </c>
+      <c r="P19" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="270" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1934</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="6">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="6">
         <v>24</v>
       </c>
-      <c r="P8" s="1">
+      <c r="L20" s="6">
+        <v>113</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O20" s="6">
+        <v>8</v>
+      </c>
+      <c r="P20" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1936</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="6">
+        <v>33</v>
+      </c>
+      <c r="L21" s="6">
+        <v>112</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1942</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K22" s="6">
+        <v>13</v>
+      </c>
+      <c r="L22" s="6">
+        <v>62</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="O22" s="6">
+        <v>10</v>
+      </c>
+      <c r="P22" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1947</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="6">
+        <v>10</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" s="6">
+        <v>23</v>
+      </c>
+      <c r="L23" s="6">
+        <v>93</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O23" s="6">
+        <v>14</v>
+      </c>
+      <c r="P23" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="300" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1940</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="6">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" s="6">
+        <v>19</v>
+      </c>
+      <c r="L24" s="6">
+        <v>131</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O24" s="6">
+        <v>18</v>
+      </c>
+      <c r="P24" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1950</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="6">
+        <v>10</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="6">
+        <v>33</v>
+      </c>
+      <c r="L25" s="6">
+        <v>113</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O25" s="6">
+        <v>3</v>
+      </c>
+      <c r="P25" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1946</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="6">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="6">
         <v>24</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>98</v>
+      <c r="L26" s="6">
+        <v>117</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="O26" s="6">
+        <v>6</v>
+      </c>
+      <c r="P26" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="330" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1952</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="27" spans="1:18" ht="270" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1948</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K27" s="1">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1">
+        <v>128</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="O27" s="1">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1953</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" s="1">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K28" s="1">
+        <v>59</v>
+      </c>
+      <c r="L28" s="1">
+        <v>191</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="O28" s="1">
+        <v>32</v>
+      </c>
+      <c r="P28" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1960</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="1">
+        <v>22</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="1">
+        <v>42</v>
+      </c>
+      <c r="L29" s="1">
+        <v>122</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="O29" s="1">
+        <v>20</v>
+      </c>
+      <c r="P29" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1971</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" s="1">
+        <v>23</v>
+      </c>
+      <c r="L30" s="1">
+        <v>165</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="O30" s="1">
+        <v>13</v>
+      </c>
+      <c r="P30" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="240" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1979</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" s="1">
+        <v>21</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="K31" s="1">
         <v>103</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="L31" s="1">
+        <v>353</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="1">
+        <v>18</v>
+      </c>
+      <c r="P31" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1980</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H32" s="1">
+        <v>15</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K32" s="1">
+        <v>50</v>
+      </c>
+      <c r="L32" s="1">
+        <v>309</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="O32" s="1">
+        <v>8</v>
+      </c>
+      <c r="P32" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1985</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" s="1">
         <v>23</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I33" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K33" s="1">
+        <v>57</v>
+      </c>
+      <c r="L33" s="1">
+        <v>206</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="O33" s="1">
+        <v>30</v>
+      </c>
+      <c r="P33" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="R33" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1997</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H34" s="1">
+        <v>20</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="1">
         <v>60</v>
       </c>
-      <c r="L9" s="1">
-        <v>207</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24</v>
-      </c>
-      <c r="P9" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>110</v>
+      <c r="L34" s="1">
+        <v>141</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="1">
+        <v>13</v>
+      </c>
+      <c r="P34" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1260,8 +3452,36 @@
     <hyperlink ref="C7" r:id="rId8" xr:uid="{534BB5AF-D798-4DC3-A878-B4728480D4F9}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{0A9E78E5-5BC6-46E5-AFD1-01A7E9709C27}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{E769C3A7-0DBC-4DA7-8807-CD9071A94891}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{6948A8EB-917C-4B84-8D47-EC8CBE24A018}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{27CAC79B-5363-4E7E-99C9-337FE7B475AF}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{A92F2416-7177-4C0A-BD03-438AA33735CC}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{57BDAF4E-DA7B-4835-9BFC-553B3E244C2D}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{8346B203-AB5B-4BE5-B0EF-EEEBA9B0CE0F}"/>
+    <hyperlink ref="C15" r:id="rId16" xr:uid="{FC3A17A2-3CF6-46F9-BEDE-40FD64440D6A}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{49530BB1-53A6-446F-B82B-55F08FAE4F72}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{F17691CF-F47D-459F-B705-0938906B1AE0}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{D3EE0C4F-D3BA-4077-9C5C-E6A65F687A36}"/>
+    <hyperlink ref="C18" r:id="rId20" xr:uid="{171B607D-C465-48D0-B0E6-09845DDEAF74}"/>
+    <hyperlink ref="C19" r:id="rId21" xr:uid="{B41C98EF-49C7-4668-A77E-DB0A72E57B25}"/>
+    <hyperlink ref="C20" r:id="rId22" xr:uid="{5014A2E4-690C-49B2-A42D-780EB3F892DF}"/>
+    <hyperlink ref="C21" r:id="rId23" xr:uid="{446CFD5F-32F6-49DF-A61C-337A0A005134}"/>
+    <hyperlink ref="C22" r:id="rId24" xr:uid="{82AFD660-981D-40F1-9BD6-DA3B283CBD2D}"/>
+    <hyperlink ref="C23" r:id="rId25" xr:uid="{1BD5657B-067A-42C6-903A-58A59ED377D8}"/>
+    <hyperlink ref="C24" r:id="rId26" xr:uid="{AFA6743E-AC4D-408E-83BF-6384AA10311F}"/>
+    <hyperlink ref="C25" r:id="rId27" xr:uid="{F1DA9F07-D999-436A-BB13-29B50346892A}"/>
+    <hyperlink ref="C26" r:id="rId28" xr:uid="{E623FB17-0C72-4996-BF37-E4D4988630BF}"/>
+    <hyperlink ref="C27" r:id="rId29" xr:uid="{C7385EAE-35BE-460D-9FDF-3613889B965C}"/>
+    <hyperlink ref="C28" r:id="rId30" xr:uid="{F43D7160-6F34-40B3-A3FD-48F8DC702A20}"/>
+    <hyperlink ref="C29" r:id="rId31" xr:uid="{A9DAB28A-CE43-4D4C-A6BE-830BF77C2922}"/>
+    <hyperlink ref="C30" r:id="rId32" xr:uid="{C416044A-EA8F-40B1-A16D-E5CE98E6EA7D}"/>
+    <hyperlink ref="B31" r:id="rId33" xr:uid="{B4333EC3-1E94-4917-9AAE-CE47E6DC90EF}"/>
+    <hyperlink ref="C31" r:id="rId34" xr:uid="{4218BA0B-65D1-453D-A4C0-116A6C13CAE5}"/>
+    <hyperlink ref="C32" r:id="rId35" xr:uid="{5EE972E5-F759-4426-9008-F094A08FD6E1}"/>
+    <hyperlink ref="C33" r:id="rId36" xr:uid="{40BE6D52-D5C7-43F5-A039-D3E1728B24BB}"/>
+    <hyperlink ref="B34" r:id="rId37" xr:uid="{89CC3FFA-CC8A-42CB-AB47-265FB2DB3C95}"/>
+    <hyperlink ref="C34" r:id="rId38" xr:uid="{A3B2C265-C99B-439E-9F8D-751DB8B741E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC97167-E06C-476D-8ED4-934A9DBB199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11281067-8F4D-4BC9-9485-F58557BDC48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Drivers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1077,9 +1077,6 @@
     <t>1 (15x)</t>
   </si>
   <si>
-    <t>BMW Williams F1 Team (2000), Mild Seven Renault F1 Team (2001-2002), Honda Racing F1 Team (2003-2008), Honda Racing F1 Team (2009), McLaren Honda (2010-2017)</t>
-  </si>
-  <si>
     <t>Nico Rosberg</t>
   </si>
   <si>
@@ -1135,6 +1132,9 @@
   </si>
   <si>
     <t>Scuderia Toro Rosso (2015-2016), Red Bull Racing Honda (2016-)</t>
+  </si>
+  <si>
+    <t>BMW Williams F1 Team (2000), Mild Seven Renault F1 Team (2001-2002), Honda Racing F1 Team (2003-2008), Brawn GP F1 Team (2009), McLaren Honda (2010-2017)</t>
   </si>
 </sst>
 </file>
@@ -1198,15 +1198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1510,7 +1507,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="R34" sqref="A34:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,21 +1515,21 @@
     <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1546,7 +1543,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1555,16 +1552,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1573,10 +1570,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1588,1856 +1585,1856 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1985</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>103</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>182</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>288</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>103</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>59</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1911</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>24</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>35</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>52</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>29</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>23</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1955</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>51</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>106</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>202</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>33</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>41</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1987</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>53</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>122</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>280</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>57</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>38</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1926</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>14</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>31</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>128</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>13</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>12</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1939</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>27</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>43</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>100</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>17</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>15</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1949</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>54</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>177</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>24</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>24</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="225" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1952</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>23</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>60</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>207</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>24</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>23</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1960</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>41</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>80</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>162</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>65</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>19</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1918</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>13</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>17</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>33</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>14</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>12</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1929</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>14</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>36</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>179</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>13</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="7" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1936</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>25</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>32</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>73</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>33</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>28</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1946</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>14</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>35</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>149</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>6</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>6</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1968</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>20</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>51</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>165</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>26</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>25</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>1981</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>32</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>98</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>336</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>22</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>23</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>1906</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>20</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>36</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>5</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>5</v>
       </c>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1929</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>3</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>18</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>47</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>4</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>6</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="330" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>1927</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>3</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>16</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>52</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>6</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>6</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="270" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1934</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>6</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>24</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>113</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>8</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>11</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="7" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1936</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>8</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>33</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>112</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>1</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>9</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="180" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1942</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>6</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>13</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>62</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>10</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>3</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1947</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>10</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>23</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>93</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>14</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>8</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="300" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1940</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>12</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>19</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>131</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>18</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>10</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="7" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1950</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>10</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>33</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>113</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>3</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>5</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1946</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>12</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>24</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>117</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>6</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>13</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="270" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>1948</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>5</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <v>17</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <v>128</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="5">
         <v>5</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="5">
         <v>3</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>1953</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>31</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <v>59</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <v>191</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="5">
         <v>32</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="5">
         <v>30</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>1960</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>22</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>42</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>122</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="5">
         <v>20</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="5">
         <v>19</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <v>1971</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>11</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <v>23</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>165</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="5">
         <v>13</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="5">
         <v>9</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="7" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="240" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>1979</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>21</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <v>103</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="5">
         <v>353</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="5">
         <v>18</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="5">
         <v>46</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="210" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:18" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>1980</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <v>50</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="5">
         <v>309</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="5">
         <v>8</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="5">
         <v>8</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>350</v>
+      <c r="R32" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5">
+        <v>1985</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="1">
-        <v>1985</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5">
+        <v>23</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="1">
-        <v>23</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5">
+        <v>57</v>
+      </c>
+      <c r="L33" s="5">
+        <v>206</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K33" s="1">
-        <v>57</v>
-      </c>
-      <c r="L33" s="1">
-        <v>206</v>
-      </c>
-      <c r="M33" s="5" t="s">
+      <c r="N33" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="O33" s="5">
+        <v>30</v>
+      </c>
+      <c r="P33" s="5">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R33" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="O33" s="1">
-        <v>30</v>
-      </c>
-      <c r="P33" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5">
+        <v>1997</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E34" s="1">
-        <v>1997</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5">
+        <v>20</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H34" s="1">
-        <v>20</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="5">
+        <v>60</v>
+      </c>
+      <c r="L34" s="5">
+        <v>141</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="N34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="1">
-        <v>60</v>
-      </c>
-      <c r="L34" s="1">
-        <v>141</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="O34" s="5">
+        <v>13</v>
+      </c>
+      <c r="P34" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R34" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="1">
-        <v>13</v>
-      </c>
-      <c r="P34" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
